--- a/iso_r.xlsx
+++ b/iso_r.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailmissouri-my.sharepoint.com/personal/ckwr82_umsystem_edu/Documents/Documents/Research/isotope and REY files/iso/fuisotopes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{849E088F-545B-44E5-9B0D-BE8B06D03F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="8_{849E088F-545B-44E5-9B0D-BE8B06D03F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A5F6764-AA6E-42D7-A701-172BDA349A61}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="120" windowWidth="28770" windowHeight="15270" activeTab="1" xr2:uid="{2D25A0EC-A432-44F0-858C-261B7C456205}"/>
+    <workbookView xWindow="1335" yWindow="1470" windowWidth="21135" windowHeight="10800" activeTab="2" xr2:uid="{2D25A0EC-A432-44F0-858C-261B7C456205}"/>
   </bookViews>
   <sheets>
     <sheet name="Original run" sheetId="1" r:id="rId1"/>
     <sheet name="Second run" sheetId="2" r:id="rId2"/>
+    <sheet name="position analysis" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="140">
   <si>
     <t>ID</t>
   </si>
@@ -451,13 +452,22 @@
   </si>
   <si>
     <t>MMF-FUB-4</t>
+  </si>
+  <si>
+    <t>above</t>
+  </si>
+  <si>
+    <t>below</t>
+  </si>
+  <si>
+    <t>horizon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +498,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="MS sans serif"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -525,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -560,6 +576,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1012,7 +1048,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A449A4F-F71C-4166-BD54-6097E0324134}">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -1022,14 +1058,13 @@
   <cols>
     <col min="1" max="1" width="29.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,9 +1085,8 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1069,7 +1103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1086,7 +1120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1103,7 +1137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1120,7 +1154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1137,7 +1171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1154,7 +1188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -1171,7 +1205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -1188,7 +1222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1205,7 +1239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1222,7 +1256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -1239,7 +1273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1256,7 +1290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -1273,7 +1307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1290,7 +1324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2540,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694FEE72-F9C1-43A4-8ECB-AF40B796C568}">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3292,4 +3326,1187 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E53E02-F9FB-43B2-A216-2D9D176CBD09}">
+  <dimension ref="A1:I68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.85546875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="18">
+        <v>-0.54385453665472738</v>
+      </c>
+      <c r="C2" s="18">
+        <v>-7.8009140166908892</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="18">
+        <v>0.90260121446991004</v>
+      </c>
+      <c r="C3" s="18">
+        <v>-11.069140035390838</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="18">
+        <v>-0.838698383670609</v>
+      </c>
+      <c r="C4" s="18">
+        <v>-8.4961080818408625</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="18">
+        <v>-0.24454040958454115</v>
+      </c>
+      <c r="C5" s="18">
+        <v>-8.7643518070549185</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="18">
+        <v>-0.35234227636538229</v>
+      </c>
+      <c r="C6" s="18">
+        <v>-8.0469441266180759</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="18">
+        <v>-0.51229828702861901</v>
+      </c>
+      <c r="C7" s="18">
+        <v>-8.143050157260717</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="18">
+        <v>-0.51229828702861901</v>
+      </c>
+      <c r="C8" s="18">
+        <v>-8.2951134851182626</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="18">
+        <v>0.34687096504670123</v>
+      </c>
+      <c r="C9" s="18">
+        <v>-8.9304290724154267</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="18">
+        <v>0.13932327532986299</v>
+      </c>
+      <c r="C10" s="18">
+        <v>-8.6670835732354519</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="18">
+        <v>0.40419366030182591</v>
+      </c>
+      <c r="C11" s="18">
+        <v>-8.5681105965294222</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="18">
+        <v>-0.98717549185255216</v>
+      </c>
+      <c r="C12" s="18">
+        <v>-9.5931722227537257</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="18">
+        <v>-1.190302157499783</v>
+      </c>
+      <c r="C13" s="18">
+        <v>-9.0047423484534814</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="18">
+        <v>0.58268919314343659</v>
+      </c>
+      <c r="C14" s="18">
+        <v>-9.288167313494899</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="18">
+        <v>0.63783783332530142</v>
+      </c>
+      <c r="C15" s="18">
+        <v>-8.5668702245072463</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="18">
+        <v>-8.5208252317026556E-2</v>
+      </c>
+      <c r="C16" s="18">
+        <v>-9.2724842144996913</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="18">
+        <v>-0.78920555556998728</v>
+      </c>
+      <c r="C17" s="18">
+        <v>-9.3762442966196318</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="18">
+        <v>0.96274068181755545</v>
+      </c>
+      <c r="C18" s="18">
+        <v>-8.9533017837491968</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="18">
+        <v>0.92730580894052039</v>
+      </c>
+      <c r="C19" s="18">
+        <v>-8.7073907915043183</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="18">
+        <v>1.6028142658287958</v>
+      </c>
+      <c r="C20" s="18">
+        <v>-9.6759789854484293</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="18">
+        <v>1.8200400182193537</v>
+      </c>
+      <c r="C21" s="18">
+        <v>-8.5417772661149094</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="18">
+        <v>1.5903371979143461</v>
+      </c>
+      <c r="C22" s="18">
+        <v>-9.8777263709227974</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="18">
+        <v>-0.6945736922824306</v>
+      </c>
+      <c r="C23" s="18">
+        <v>-7.3813085341112323</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="18">
+        <v>-1.7750570817249667</v>
+      </c>
+      <c r="C24" s="18">
+        <v>-8.7714233065598393</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="18">
+        <v>-1.3293237099997572</v>
+      </c>
+      <c r="C25" s="18">
+        <v>-8.6373791993942994</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="18">
+        <v>-0.5302652648254238</v>
+      </c>
+      <c r="C26" s="18">
+        <v>-7.9024086862782283</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="18">
+        <v>-1.000775495879302</v>
+      </c>
+      <c r="C27" s="18">
+        <v>-8.8011129910996875</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="18">
+        <v>-1.8406069372008709</v>
+      </c>
+      <c r="C28" s="18">
+        <v>-8.486321828067851</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="18">
+        <v>-0.83570388737114065</v>
+      </c>
+      <c r="C29" s="18">
+        <v>-9.2544172844572099</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="18">
+        <v>-1.0508085382162431</v>
+      </c>
+      <c r="C30" s="18">
+        <v>-7.2575196555952326</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="18">
+        <v>-0.4371863381836345</v>
+      </c>
+      <c r="C31" s="18">
+        <v>-8.1433010868446392</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="18">
+        <v>-0.27473491393750926</v>
+      </c>
+      <c r="C32" s="18">
+        <v>-8.51241850479588</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="18">
+        <v>0.46917585362983694</v>
+      </c>
+      <c r="C33" s="18">
+        <v>-9.0130521626794753</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="18">
+        <v>0.52379743258723543</v>
+      </c>
+      <c r="C34" s="18">
+        <v>-8.3666284165364164</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="18">
+        <v>1.2901389438926998</v>
+      </c>
+      <c r="C35" s="18">
+        <v>-7.3179936853207588</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="18">
+        <v>1.7001353955614977</v>
+      </c>
+      <c r="C36" s="18">
+        <v>-7.7112003433286409</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="18">
+        <v>0.31543039841593412</v>
+      </c>
+      <c r="C37" s="18">
+        <v>-7.6828453003453019</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="18">
+        <v>0.21261935880087357</v>
+      </c>
+      <c r="C38" s="18">
+        <v>-7.8745555024627372</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="18">
+        <v>-0.11714636982022775</v>
+      </c>
+      <c r="C39" s="18">
+        <v>-7.8248772090333327</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="20">
+        <v>1.3939984757847448</v>
+      </c>
+      <c r="C40" s="20">
+        <v>-9.1306215751095881</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="18">
+        <v>-4.7180683396311256</v>
+      </c>
+      <c r="C41" s="18">
+        <v>-7.0811161580971218</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="18">
+        <v>-5.5892172214179645</v>
+      </c>
+      <c r="C42" s="18">
+        <v>-6.2277046431738263</v>
+      </c>
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="18">
+        <v>-3.3490844480577699</v>
+      </c>
+      <c r="C43" s="18">
+        <v>-7.3257725024223834</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="18">
+        <v>-4.3024443651934572</v>
+      </c>
+      <c r="C44" s="18">
+        <v>-7.2525063752705989</v>
+      </c>
+      <c r="D44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="18">
+        <v>-4.1002039365076062</v>
+      </c>
+      <c r="C45" s="18">
+        <v>-7.7566185980187656</v>
+      </c>
+      <c r="D45" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="18">
+        <v>0.30910690205561231</v>
+      </c>
+      <c r="C46" s="18">
+        <v>-7.4317713784066193</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="18">
+        <v>0.37613541210358292</v>
+      </c>
+      <c r="C47" s="18">
+        <v>-7.4102435440689556</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="18">
+        <v>0.46610822314184031</v>
+      </c>
+      <c r="C48" s="18">
+        <v>-7.8247952064039463</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="18">
+        <v>-0.58488278959772622</v>
+      </c>
+      <c r="C49" s="18">
+        <v>-7.2946667636914277</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="18">
+        <v>-0.20518876430001765</v>
+      </c>
+      <c r="C50" s="18">
+        <v>-7.2420459898918903</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="18">
+        <v>-0.41458505339416263</v>
+      </c>
+      <c r="C51" s="18">
+        <v>-7.4854240818140498</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="18">
+        <v>1.0780197018687154E-2</v>
+      </c>
+      <c r="C52" s="18">
+        <v>-7.4942271303513515</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="18">
+        <v>-1.0427094342043004</v>
+      </c>
+      <c r="C53" s="18">
+        <v>-7.4524996377378425</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="18">
+        <v>-0.82366513193379109</v>
+      </c>
+      <c r="C54" s="18">
+        <v>-7.2509464116917659</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="18">
+        <v>-3.405244343409342</v>
+      </c>
+      <c r="C55" s="18">
+        <v>-6.7706666053162863</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="18">
+        <v>-1.7682284420765804</v>
+      </c>
+      <c r="C56" s="18">
+        <v>-6.9440122412532119</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="18">
+        <v>-3.7676567046755469</v>
+      </c>
+      <c r="C57" s="18">
+        <v>-6.9088269712868229</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="18">
+        <v>-3.8161388846768709</v>
+      </c>
+      <c r="C58" s="18">
+        <v>-6.2504807902143504</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="18">
+        <v>-5.8785560584474243</v>
+      </c>
+      <c r="C59" s="18">
+        <v>-6.9151636549774524</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="18">
+        <v>-6.1613779226766816</v>
+      </c>
+      <c r="C60" s="18">
+        <v>-6.6896430147462755</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="18">
+        <v>-5.3163044096283381</v>
+      </c>
+      <c r="C61" s="18">
+        <v>-6.9826907411767598</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="18">
+        <v>-0.96132266257988341</v>
+      </c>
+      <c r="C62" s="18">
+        <v>-7.5254163061255799</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="18">
+        <v>-1.1639594770985806</v>
+      </c>
+      <c r="C63" s="18">
+        <v>-7.136258412150899</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="18">
+        <v>-0.92469904981334139</v>
+      </c>
+      <c r="C64" s="18">
+        <v>-7.6678949754906194</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="18">
+        <v>1.2771929335305958</v>
+      </c>
+      <c r="C65" s="18">
+        <v>-6.5223949823879792</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="18">
+        <v>2.0116216018218092</v>
+      </c>
+      <c r="C66" s="18">
+        <v>-6.3725353269574079</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="18">
+        <v>2.0899721857464879</v>
+      </c>
+      <c r="C67" s="18">
+        <v>-6.4765363105865852</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" s="18">
+        <v>2.0363066453270307</v>
+      </c>
+      <c r="C68" s="18">
+        <v>-6.2162340954341033</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>